--- a/Raw Input Data/Template/PoliceLetter.xlsx
+++ b/Raw Input Data/Template/PoliceLetter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cyrilyau/Documents/FORMS/HASE/Fraud Investigation/Markdown-workshop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\hase-scripts\Raw Input Data\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C9CE1F-FDDC-2C4D-8271-32B5FDA25621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7494E39C-1C49-4012-ACA5-38EEF39FA418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-520" yWindow="-24100" windowWidth="35840" windowHeight="20200" xr2:uid="{87512554-1306-F949-B1A5-DEDDB9062EFE}"/>
+    <workbookView xWindow="-28920" yWindow="6690" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{87512554-1306-F949-B1A5-DEDDB9062EFE}"/>
   </bookViews>
   <sheets>
     <sheet name="PoliceLetter-Params" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="113">
   <si>
     <t>Var</t>
   </si>
@@ -370,59 +370,59 @@
     <t>OC DIT ■■■■■</t>
   </si>
   <si>
-    <t xml:space="preserve">CHAN TAI MAN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">111-111111-101 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N </t>
-  </si>
-  <si>
-    <t>2024-08-06</t>
-  </si>
-  <si>
-    <t>HASE 222-222222-103</t>
-  </si>
-  <si>
-    <t>District Investigation Team 5</t>
-  </si>
-  <si>
-    <t>Lantau District</t>
-  </si>
-  <si>
-    <t>1 Shun Tung Road</t>
-  </si>
-  <si>
-    <t>Tung Chung</t>
-  </si>
-  <si>
-    <t>Lantau Island</t>
-  </si>
-  <si>
-    <t>2024-08-20</t>
-  </si>
-  <si>
-    <t>LTN RN 240■■■■■■■</t>
-  </si>
-  <si>
-    <t>298■■■■■</t>
-  </si>
-  <si>
-    <t>On 2024-08-20, a female reported to police that between 2024-07-25 and 2024-08-07, she
-was lured to invest into currency excnahge and had deposited a total of HK$1,416,000 into
-eight bank accounts (including the above listed transactions). The female later found she
-could not withdraw the investment and lost contact with the seller.</t>
-  </si>
-  <si>
-    <t>DIP Tso i■■■■■■■</t>
+    <t>District Technology &amp; Financial Crime Unit</t>
+  </si>
+  <si>
+    <t>Tuen Mun District</t>
+  </si>
+  <si>
+    <t>Tuen Mun Police Station</t>
+  </si>
+  <si>
+    <t>No. 100 Pui To Road</t>
+  </si>
+  <si>
+    <t>Tuen Mun</t>
+  </si>
+  <si>
+    <t>2024-08-13</t>
+  </si>
+  <si>
+    <t>TM RN 240■■■■■■■</t>
+  </si>
+  <si>
+    <t>246■■■■■</t>
+  </si>
+  <si>
+    <t>113■■■■■■■</t>
+  </si>
+  <si>
+    <t>024N■■■■■■■</t>
+  </si>
+  <si>
+    <t>CHAN TAI MAN</t>
+  </si>
+  <si>
+    <t>On 2024-08-07, a female reported to police that on 2024-08-07, she was lured to purchase
+the hotel package at a price of $3,258-HKD and had deposited a total of HK$3,258 into 1
+FPS account (including the above listed transactions). The female later found she could not
+receive the purchased items and lost contact with the seller.</t>
+  </si>
+  <si>
+    <t>DIP SO ■■■■■■■</t>
+  </si>
+  <si>
+    <t>2024-08-07</t>
+  </si>
+  <si>
+    <t>HSBC 666-66666-602</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -436,12 +436,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -464,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -482,7 +476,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -817,19 +810,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07795220-ADDB-144F-9DAC-25D43AE85E71}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -837,69 +830,77 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="U2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B9"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>48</v>
       </c>
@@ -907,71 +908,75 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B15"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B16"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B17"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B18"/>
-    </row>
-    <row r="19" spans="1:2" ht="204" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>58</v>
       </c>
@@ -979,21 +984,21 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>61</v>
       </c>
@@ -1001,7 +1006,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>62</v>
       </c>
@@ -1022,15 +1027,15 @@
       <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -1044,7 +1049,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1065,18 +1070,18 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -1090,37 +1095,47 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C2" s="8">
-        <v>336000</v>
+        <v>2010</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="1"/>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1248</v>
+      </c>
+      <c r="D3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="8"/>
     </row>
@@ -1134,20 +1149,20 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -1167,18 +1182,18 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
         <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
         <v>65</v>
@@ -1193,26 +1208,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12BFACA-6A18-5247-8684-55BDA2AEE25C}">
   <dimension ref="B1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="58.33203125" customWidth="1"/>
+    <col min="2" max="2" width="58.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="str">
         <f>'PoliceLetter-Params'!B2&amp;CHAR(10)&amp;'PoliceLetter-Params'!B3&amp;CHAR(10)&amp;'PoliceLetter-Params'!B4&amp;CHAR(10)&amp;'PoliceLetter-Params'!B5&amp;CHAR(10)&amp;'PoliceLetter-Params'!B6</f>
-        <v>District Investigation Team 5
-Lantau District
-1 Shun Tung Road
-Tung Chung
-Lantau Island</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2" ht="51" x14ac:dyDescent="0.2">
+        <v>District Technology &amp; Financial Crime Unit
+Tuen Mun District
+Tuen Mun Police Station
+No. 100 Pui To Road
+Tuen Mun</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="str">
         <f>_xlfn.LET(
   _xlpm.rows_constant,
@@ -1221,16 +1236,16 @@
     "&lt;tr&gt;&lt;td colspan='2'&gt; - [" &amp; IF('PoliceLetter-Params'!B15 = 'PoliceLetter-Template'!B15, "X", " ") &amp; "] " &amp; 'PoliceLetter-Template'!B15 &amp; "&lt;/td&gt;&lt;/tr&gt;",
   _xlpm.rows_constant
 )</f>
-        <v>&lt;tr&gt;&lt;th rowspan='3'&gt;FPS Proxy Type:&lt;/th&gt;&lt;td colspan='2'&gt; - [ ] Proxy ID&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='2'&gt; - [ ] Mobile Number&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='2'&gt; - [ ] E-mail&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="68" x14ac:dyDescent="0.2">
+        <v>&lt;tr&gt;&lt;th rowspan='3'&gt;FPS Proxy Type:&lt;/th&gt;&lt;td colspan='2'&gt; - [X] Proxy ID&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='2'&gt; - [ ] Mobile Number&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='2'&gt; - [ ] E-mail&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="str">
         <f>IF('PoliceLetter-Params'!B12 = "Y", B2&amp;"&lt;tr&gt;&lt;th&gt;"&amp;'PoliceLetter-Template'!B16&amp;"&lt;/th&gt;&lt;td colspan='2'&gt;"&amp;'PoliceLetter-Params'!B16&amp;"&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;th&gt;"&amp;'PoliceLetter-Template'!B17&amp;"&lt;/th&gt;&lt;td colspan='2'&gt;"&amp;'PoliceLetter-Params'!B17&amp;"&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;th&gt;"&amp;'PoliceLetter-Template'!B18&amp;"&lt;/th&gt;&lt;td colspan='2'&gt;"&amp;'PoliceLetter-Params'!B18&amp;"&lt;/td&gt;&lt;/tr&gt;","&lt;tr&gt;&lt;th&gt;"&amp;'PoliceLetter-Template'!B19&amp;"&lt;/th&gt;&lt;td colspan='2'&gt;"&amp;'PoliceLetter-Params'!B13&amp;"&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;th&gt;"&amp;'PoliceLetter-Template'!B20&amp;"&lt;/th&gt;&lt;td colspan='2'&gt;"&amp;'PoliceLetter-Params'!B14&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
-        <v>&lt;tr&gt;&lt;th&gt;Account Name:&lt;/th&gt;&lt;td colspan='2'&gt;CHAN TAI MAN &lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;th&gt;Account Number:&lt;/th&gt;&lt;td colspan='2'&gt;111-111111-101 &lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" ht="85" x14ac:dyDescent="0.2">
+        <v>&lt;tr&gt;&lt;th rowspan='3'&gt;FPS Proxy Type:&lt;/th&gt;&lt;td colspan='2'&gt; - [X] Proxy ID&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='2'&gt; - [ ] Mobile Number&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='2'&gt; - [ ] E-mail&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;th&gt;FPS Proxy:&lt;/th&gt;&lt;td colspan='2'&gt;113■■■■■■■&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;th&gt;FPS Customer ID:&lt;/th&gt;&lt;td colspan='2'&gt;024N■■■■■■■&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;th&gt;FPS Masked Name:&lt;/th&gt;&lt;td colspan='2'&gt;CHAN TAI MAN&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="str" cm="1">
         <f t="array" ref="B4">_xlfn.LET(
   _xlpm.header, "&lt;tr&gt;&lt;th colspan='3'&gt;" &amp; 'PoliceLetter-Template'!B33 &amp; "&lt;/th&gt;&lt;tr&gt;&lt;tr&gt;&lt;th&gt;" &amp; 'PoliceLetter-Template'!B34 &amp; "&lt;/th&gt;&lt;th&gt;" &amp; 'PoliceLetter-Template'!B35 &amp; "&lt;/th&gt;&lt;th&gt;" &amp; 'PoliceLetter-Template'!B36 &amp; "&lt;/th&gt;&lt;/tr&gt;",
@@ -1245,10 +1260,11 @@
   _xlfn.TEXTJOIN(CHAR(10), TRUE, _xlpm.header, _xlpm.transactions)
 )</f>
         <v>&lt;tr&gt;&lt;th colspan='3'&gt;Transaction Details:&lt;/th&gt;&lt;tr&gt;&lt;tr&gt;&lt;th&gt;Date&lt;/th&gt;&lt;th&gt;Amount&lt;/th&gt;&lt;th&gt;Transferor's Bank and Account&lt;/th&gt;&lt;/tr&gt;
-&lt;tr&gt;&lt;td&gt;2024-08-06&lt;/td&gt;&lt;td&gt;336000&lt;/td&gt;&lt;td&gt;HASE 222-222222-103&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" ht="119" x14ac:dyDescent="0.2">
+&lt;tr&gt;&lt;td&gt;2024-08-07&lt;/td&gt;&lt;td&gt;2010&lt;/td&gt;&lt;td&gt;HSBC 666-66666-602&lt;/td&gt;&lt;/tr&gt;
+&lt;tr&gt;&lt;td&gt;2024-08-07&lt;/td&gt;&lt;td&gt;1248&lt;/td&gt;&lt;td&gt;HSBC 666-66666-602&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="126" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="str">
         <f>_xlfn.LET(
   _xlpm.rows_2,
@@ -1262,7 +1278,7 @@
         <v>&lt;tr&gt;&lt;th colspan='3'&gt;Suspected nature of transactions:&lt;/th&gt;&lt;tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [X] Might have been used in receicing proceeds of crime&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] Might have been used to receive funds related to terrorist financing&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] Exhibited transaction patterns which were incommensurate with holder's background&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] Others (please specify) &lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="139" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2" ht="138.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="str">
         <f>_xlfn.LET(
   _xlpm.rows_3,
@@ -1276,26 +1292,26 @@
     "&lt;tr&gt;&lt;td colspan='3'&gt;" &amp; 'PoliceLetter-Template'!B32 &amp; "&lt;/td&gt;&lt;/tr&gt;",
   _xlpm.rows_3
 )</f>
-        <v>&lt;tr&gt;&lt;th colspan='3'&gt;If the predicate offence is deception related, please state the type of deception:&lt;/th&gt;&lt;tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] Telephone Deception&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] E-shopping Fraud&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] Romance Scam&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [X] Investment Scam&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] Employment Fraud&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] Others (please specify) &lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt;(please tick if appropriate)&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="139" customHeight="1" x14ac:dyDescent="0.2">
+        <v>&lt;tr&gt;&lt;th colspan='3'&gt;If the predicate offence is deception related, please state the type of deception:&lt;/th&gt;&lt;tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] Telephone Deception&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [X] E-shopping Fraud&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] Romance Scam&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] Investment Scam&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] Employment Fraud&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] Others (please specify) &lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt;(please tick if appropriate)&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="138.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="str">
         <f>"&lt;tr&gt;&lt;th colspan='3'&gt;"&amp;'PoliceLetter-Template'!B37&amp;"&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt;"&amp;'PoliceLetter-Params'!B19&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;tr&gt;&lt;th colspan='3'&gt;Case Summary:&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt;On 2024-08-20, a female reported to police that between 2024-07-25 and 2024-08-07, she
-was lured to invest into currency excnahge and had deposited a total of HK$1,416,000 into
-eight bank accounts (including the above listed transactions). The female later found she
-could not withdraw the investment and lost contact with the seller.&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" ht="139" customHeight="1" x14ac:dyDescent="0.2">
+        <v>&lt;tr&gt;&lt;th colspan='3'&gt;Case Summary:&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt;On 2024-08-07, a female reported to police that on 2024-08-07, she was lured to purchase
+the hotel package at a price of $3,258-HKD and had deposited a total of HK$3,258 into 1
+FPS account (including the above listed transactions). The female later found she could not
+receive the purchased items and lost contact with the seller.&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="138.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="str">
         <f>"&lt;tr&gt;&lt;th colspan='3'&gt;"&amp;'PoliceLetter-Template'!B38&amp;"&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt;"&amp;'PoliceLetter-Params'!B32&amp;" [" &amp; IF('PoliceLetter-Params'!B20 = 'PoliceLetter-Template'!B13, "X", " ") &amp; "] " &amp; 'PoliceLetter-Template'!B39&amp;CHAR(10)&amp;CHAR(10)&amp;'PoliceLetter-Template'!B40&amp;'PoliceLetter-Params'!B21&amp;" "&amp;'PoliceLetter-Template'!B41&amp;" &lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr&gt;&lt;th colspan='3'&gt;Notification Letter issued before on the same case:&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; [ ] Yes
 Under case reference: dated &lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="str">
         <f>_xlfn.LET(
   _xlpm.table_start, "&lt;table&gt;",
@@ -1314,15 +1330,16 @@
         <v>&lt;table&gt;
 &lt;thead&gt;&lt;tr&gt;&lt;th colspan='3'&gt;Account Details&lt;/th&gt;&lt;/tr&gt;&lt;/thead&gt;
 &lt;tbody&gt;
-&lt;tr&gt;&lt;th&gt;Account Name:&lt;/th&gt;&lt;td colspan='2'&gt;CHAN TAI MAN &lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;th&gt;Account Number:&lt;/th&gt;&lt;td colspan='2'&gt;111-111111-101 &lt;/td&gt;&lt;/tr&gt;
+&lt;tr&gt;&lt;th rowspan='3'&gt;FPS Proxy Type:&lt;/th&gt;&lt;td colspan='2'&gt; - [X] Proxy ID&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='2'&gt; - [ ] Mobile Number&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='2'&gt; - [ ] E-mail&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;th&gt;FPS Proxy:&lt;/th&gt;&lt;td colspan='2'&gt;113■■■■■■■&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;th&gt;FPS Customer ID:&lt;/th&gt;&lt;td colspan='2'&gt;024N■■■■■■■&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;th&gt;FPS Masked Name:&lt;/th&gt;&lt;td colspan='2'&gt;CHAN TAI MAN&lt;/td&gt;&lt;/tr&gt;
 &lt;tr&gt;&lt;th colspan='3'&gt;Suspected nature of transactions:&lt;/th&gt;&lt;tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [X] Might have been used in receicing proceeds of crime&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] Might have been used to receive funds related to terrorist financing&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] Exhibited transaction patterns which were incommensurate with holder's background&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] Others (please specify) &lt;/td&gt;&lt;/tr&gt;
-&lt;tr&gt;&lt;th colspan='3'&gt;If the predicate offence is deception related, please state the type of deception:&lt;/th&gt;&lt;tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] Telephone Deception&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] E-shopping Fraud&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] Romance Scam&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [X] Investment Scam&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] Employment Fraud&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] Others (please specify) &lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt;(please tick if appropriate)&lt;/td&gt;&lt;/tr&gt;
+&lt;tr&gt;&lt;th colspan='3'&gt;If the predicate offence is deception related, please state the type of deception:&lt;/th&gt;&lt;tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] Telephone Deception&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [X] E-shopping Fraud&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] Romance Scam&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] Investment Scam&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] Employment Fraud&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] Others (please specify) &lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt;(please tick if appropriate)&lt;/td&gt;&lt;/tr&gt;
 &lt;tr&gt;&lt;th colspan='3'&gt;Transaction Details:&lt;/th&gt;&lt;tr&gt;&lt;tr&gt;&lt;th&gt;Date&lt;/th&gt;&lt;th&gt;Amount&lt;/th&gt;&lt;th&gt;Transferor's Bank and Account&lt;/th&gt;&lt;/tr&gt;
-&lt;tr&gt;&lt;td&gt;2024-08-06&lt;/td&gt;&lt;td&gt;336000&lt;/td&gt;&lt;td&gt;HASE 222-222222-103&lt;/td&gt;&lt;/tr&gt;
-&lt;tr&gt;&lt;th colspan='3'&gt;Case Summary:&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt;On 2024-08-20, a female reported to police that between 2024-07-25 and 2024-08-07, she
-was lured to invest into currency excnahge and had deposited a total of HK$1,416,000 into
-eight bank accounts (including the above listed transactions). The female later found she
-could not withdraw the investment and lost contact with the seller.&lt;/td&gt;&lt;/tr&gt;
+&lt;tr&gt;&lt;td&gt;2024-08-07&lt;/td&gt;&lt;td&gt;2010&lt;/td&gt;&lt;td&gt;HSBC 666-66666-602&lt;/td&gt;&lt;/tr&gt;
+&lt;tr&gt;&lt;td&gt;2024-08-07&lt;/td&gt;&lt;td&gt;1248&lt;/td&gt;&lt;td&gt;HSBC 666-66666-602&lt;/td&gt;&lt;/tr&gt;
+&lt;tr&gt;&lt;th colspan='3'&gt;Case Summary:&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt;On 2024-08-07, a female reported to police that on 2024-08-07, she was lured to purchase
+the hotel package at a price of $3,258-HKD and had deposited a total of HK$3,258 into 1
+FPS account (including the above listed transactions). The female later found she could not
+receive the purchased items and lost contact with the seller.&lt;/td&gt;&lt;/tr&gt;
 &lt;tr&gt;&lt;th colspan='3'&gt;Notification Letter issued before on the same case:&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; [ ] Yes
 Under case reference: dated &lt;/td&gt;&lt;/tr&gt;
 &lt;/tbody&gt;
@@ -1343,282 +1360,282 @@
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="45.33203125" customWidth="1"/>
+    <col min="2" max="2" width="45.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2" ht="94.5" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:2" ht="63" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" ht="63" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="119" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" ht="110.25" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" ht="94.5" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" ht="94.5" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="187" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" ht="173.25" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
         <v>96</v>
       </c>
@@ -1637,64 +1654,64 @@
       <selection sqref="A1:A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.33203125" customWidth="1"/>
+    <col min="1" max="1" width="66.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>"**"&amp;'PoliceLetter-Template'!B1&amp;"**"</f>
         <v>**&lt;u&gt;Annex H6&lt;/u&gt;**</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>"**"&amp;'PoliceLetter-Template'!B2&amp;"**"</f>
         <v>**PERSONAL DATA**</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'PoliceLetter-Template'!B3&amp;" "&amp;'PoliceLetter-Params'!B8</f>
-        <v>*Our Ref.:* LTN RN 240■■■■■■■</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+        <v>*Our Ref.:* TM RN 240■■■■■■■</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'PoliceLetter-Template'!B4&amp;" "&amp;'PoliceLetter-Params'!B9</f>
         <v xml:space="preserve">*Your Ref.:* </v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'PoliceLetter-Template'!B5&amp;" "&amp;'PoliceLetter-Params'!B10</f>
         <v>*Tel.:* 366■■■■■</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'PoliceLetter-Template'!B6&amp;" "&amp;'PoliceLetter-Params'!B11</f>
-        <v>*Fax:* 298■■■■■</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="85" x14ac:dyDescent="0.2">
+        <v>*Fax:* 246■■■■■</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f>'PoliceLetter-Runtime-Params'!B1</f>
-        <v>District Investigation Team 5
-Lantau District
-1 Shun Tung Road
-Tung Chung
-Lantau Island</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+        <v>District Technology &amp; Financial Crime Unit
+Tuen Mun District
+Tuen Mun Police Station
+No. 100 Pui To Road
+Tuen Mun</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f>'PoliceLetter-Params'!B7</f>
-        <v>2024-08-20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="102" x14ac:dyDescent="0.2">
+        <v>2024-08-13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="str">
         <f>'PoliceLetter-Template'!B7</f>
         <v>HANG SENG BANK, LIMITED
@@ -1705,70 +1722,71 @@
 Hong Kong</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f>'PoliceLetter-Template'!B8</f>
         <v>Dear Sir/Madam,</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="str">
         <f>'PoliceLetter-Template'!B10</f>
         <v>I write to you in connection with the following bank account, which is believed to be held with your institution. Information received by the Hong Kong Polive indicated that the below account:-</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="str">
         <f>'PoliceLetter-Runtime-Params'!B9</f>
         <v>&lt;table&gt;
 &lt;thead&gt;&lt;tr&gt;&lt;th colspan='3'&gt;Account Details&lt;/th&gt;&lt;/tr&gt;&lt;/thead&gt;
 &lt;tbody&gt;
-&lt;tr&gt;&lt;th&gt;Account Name:&lt;/th&gt;&lt;td colspan='2'&gt;CHAN TAI MAN &lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;th&gt;Account Number:&lt;/th&gt;&lt;td colspan='2'&gt;111-111111-101 &lt;/td&gt;&lt;/tr&gt;
+&lt;tr&gt;&lt;th rowspan='3'&gt;FPS Proxy Type:&lt;/th&gt;&lt;td colspan='2'&gt; - [X] Proxy ID&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='2'&gt; - [ ] Mobile Number&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='2'&gt; - [ ] E-mail&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;th&gt;FPS Proxy:&lt;/th&gt;&lt;td colspan='2'&gt;113■■■■■■■&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;th&gt;FPS Customer ID:&lt;/th&gt;&lt;td colspan='2'&gt;024N■■■■■■■&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;th&gt;FPS Masked Name:&lt;/th&gt;&lt;td colspan='2'&gt;CHAN TAI MAN&lt;/td&gt;&lt;/tr&gt;
 &lt;tr&gt;&lt;th colspan='3'&gt;Suspected nature of transactions:&lt;/th&gt;&lt;tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [X] Might have been used in receicing proceeds of crime&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] Might have been used to receive funds related to terrorist financing&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] Exhibited transaction patterns which were incommensurate with holder's background&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] Others (please specify) &lt;/td&gt;&lt;/tr&gt;
-&lt;tr&gt;&lt;th colspan='3'&gt;If the predicate offence is deception related, please state the type of deception:&lt;/th&gt;&lt;tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] Telephone Deception&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] E-shopping Fraud&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] Romance Scam&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [X] Investment Scam&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] Employment Fraud&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] Others (please specify) &lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt;(please tick if appropriate)&lt;/td&gt;&lt;/tr&gt;
+&lt;tr&gt;&lt;th colspan='3'&gt;If the predicate offence is deception related, please state the type of deception:&lt;/th&gt;&lt;tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] Telephone Deception&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [X] E-shopping Fraud&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] Romance Scam&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] Investment Scam&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] Employment Fraud&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; - [ ] Others (please specify) &lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt;(please tick if appropriate)&lt;/td&gt;&lt;/tr&gt;
 &lt;tr&gt;&lt;th colspan='3'&gt;Transaction Details:&lt;/th&gt;&lt;tr&gt;&lt;tr&gt;&lt;th&gt;Date&lt;/th&gt;&lt;th&gt;Amount&lt;/th&gt;&lt;th&gt;Transferor's Bank and Account&lt;/th&gt;&lt;/tr&gt;
-&lt;tr&gt;&lt;td&gt;2024-08-06&lt;/td&gt;&lt;td&gt;336000&lt;/td&gt;&lt;td&gt;HASE 222-222222-103&lt;/td&gt;&lt;/tr&gt;
-&lt;tr&gt;&lt;th colspan='3'&gt;Case Summary:&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt;On 2024-08-20, a female reported to police that between 2024-07-25 and 2024-08-07, she
-was lured to invest into currency excnahge and had deposited a total of HK$1,416,000 into
-eight bank accounts (including the above listed transactions). The female later found she
-could not withdraw the investment and lost contact with the seller.&lt;/td&gt;&lt;/tr&gt;
+&lt;tr&gt;&lt;td&gt;2024-08-07&lt;/td&gt;&lt;td&gt;2010&lt;/td&gt;&lt;td&gt;HSBC 666-66666-602&lt;/td&gt;&lt;/tr&gt;
+&lt;tr&gt;&lt;td&gt;2024-08-07&lt;/td&gt;&lt;td&gt;1248&lt;/td&gt;&lt;td&gt;HSBC 666-66666-602&lt;/td&gt;&lt;/tr&gt;
+&lt;tr&gt;&lt;th colspan='3'&gt;Case Summary:&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt;On 2024-08-07, a female reported to police that on 2024-08-07, she was lured to purchase
+the hotel package at a price of $3,258-HKD and had deposited a total of HK$3,258 into 1
+FPS account (including the above listed transactions). The female later found she could not
+receive the purchased items and lost contact with the seller.&lt;/td&gt;&lt;/tr&gt;
 &lt;tr&gt;&lt;th colspan='3'&gt;Notification Letter issued before on the same case:&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan='3'&gt; [ ] Yes
 Under case reference: dated &lt;/td&gt;&lt;/tr&gt;
 &lt;/tbody&gt;
 &lt;/table&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
         <f>'PoliceLetter-Template'!B42</f>
         <v>I suggest that you examine the above/past transactions in the above account to ascertain whether or not you are satisfied that the provenance of the deposits into the said account is legitimate.</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="str">
         <f>'PoliceLetter-Template'!B43</f>
         <v>Furthermore, I would like to draw your attention to chapter 3.1 of the "Guideline on Anti-Money Laundering and Counter- Financing of Terrorism (for Authorized Institutions)" published by the Hong Kong Monetary Authority under section 7 of the Anti-Money Laundering and Counter-Terrorist Financing Ordinance, Cap. 615 ("AMLO"), which states that:-</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
         <f>'PoliceLetter-Template'!B44</f>
         <v>*"An Authorized Institution should take all reasonable measures to ensure that proper safeguards exist to mitigate the risks of money laundering and terrorist financing and to prevent a contravention of any requirement under Part 2 or 3 of Schedule 2 [to the AMLO]".*</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="str">
         <f>'PoliceLetter-Template'!B45</f>
         <v>May I also remind you of sections 25(1) and 25A(1) of the Organized and Serious Crimes Ordinance, Cap. 455, Laws of Hong Kong, which state that:-</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="str">
         <f>'PoliceLetter-Template'!B46</f>
         <v>*"Subject to section 25A, a person commits an offence if, knowing or having reasonable grounds to believe that any property in whole or in part directly or indirectly represents any person's proceeds of an indictable offence, he deals with that property. " (section 25(1))*</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="str">
         <f>'PoliceLetter-Template'!B47</f>
         <v>*\"Where a person knows or suspects that any property:-
@@ -1778,55 +1796,55 @@
 an indictable offence, he shall as soon as it is reasonable for him to do so disclose that knowledge or suspicion, together with any matter on which that knowledge or suspicion is based, to an authorized officer.\" (section 25A(1))*</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="str">
         <f>'PoliceLetter-Template'!B48</f>
         <v>Please treat this notification in confidence. Disclosure of the contents of this notification, directly or indirectly, to any unauthorized persons including the subjects under investigation, may prejudice the police investigation.</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>'PoliceLetter-Template'!B49&amp;'PoliceLetter-Params'!B22&amp;'PoliceLetter-Template'!B50&amp;'PoliceLetter-Params'!B23</f>
-        <v>Should you have any queries concerning this matter, please contact the Officer-in-Charge of the case DIP Tso i■■■■■■■ on telephone number 366■■■■■</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+        <v>Should you have any queries concerning this matter, please contact the Officer-in-Charge of the case DIP SO ■■■■■■■ on telephone number 366■■■■■</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="str">
         <f>'PoliceLetter-Template'!B51</f>
         <v>Yours faithfully,</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="str">
         <f>'PoliceLetter-Template'!B52</f>
         <v>(Original Signed)</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>'PoliceLetter-Params'!B22</f>
-        <v>DIP Tso i■■■■■■■</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+        <v>DIP SO ■■■■■■■</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>'PoliceLetter-Params'!B24</f>
         <v>OC DIT ■■■■■</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="str">
         <f>'PoliceLetter-Template'!B53</f>
         <v>for Commissioner of Police</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="str">
         <f>'PoliceLetter-Template'!B54</f>
         <v>cc SP JFIU FIIB</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="str">
         <f>'PoliceLetter-Template'!B55</f>
         <v>(email: jfiu-noti-letter@police.gov.hk)</v>
@@ -1846,39 +1864,39 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
